--- a/public/DataImport/usman dikit.xlsx
+++ b/public/DataImport/usman dikit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90DC5293-0C9B-4936-970E-983895592B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{037C2905-F99C-40EC-B26E-44F890FF30AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9040E810-4DB3-4C85-AC24-CD336969BBB8}"/>
   </bookViews>
@@ -942,10 +942,15 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD21"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
